--- a/Excel/HeroPhatomConfig.xlsx
+++ b/Excel/HeroPhatomConfig.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
-    <sheet name="定制配置" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -38,31 +37,238 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>战神</t>
+  </si>
+  <si>
+    <t>1002,1004,1005,1007,1008,1009</t>
+  </si>
+  <si>
+    <t>刺杀，野蛮，武力盾，烈火，护体，开天</t>
+  </si>
+  <si>
     <t>战士</t>
   </si>
   <si>
-    <t>1002,1004,1005,1007,1008,1009</t>
+    <t>基础剑术</t>
+  </si>
+  <si>
+    <t>法圣</t>
+  </si>
+  <si>
+    <t>2001,2003,2005,2007,2008,2009</t>
+  </si>
+  <si>
+    <t>火球，火墙，法盾，冰咆，瞬移，火雨</t>
   </si>
   <si>
     <t>法师</t>
   </si>
   <si>
-    <t>2001,2003,2005,2007,2008,2009</t>
+    <t>刺杀剑术</t>
+  </si>
+  <si>
+    <t>天尊</t>
+  </si>
+  <si>
+    <t>3001,3002,3003,3005,3008,3009</t>
+  </si>
+  <si>
+    <t>治愈，火符，毒，道力盾，隐身，月灵</t>
   </si>
   <si>
     <t>道士</t>
   </si>
   <si>
-    <t>3001,3002,3003,3005,3008,3009</t>
-  </si>
-  <si>
-    <t>AttrList</t>
-  </si>
-  <si>
-    <t>AttrValueList</t>
-  </si>
-  <si>
-    <t>long[]</t>
+    <t>半月弯刀</t>
+  </si>
+  <si>
+    <t>鸡腿</t>
+  </si>
+  <si>
+    <t>1002,1004,1005,1007,2007,2009</t>
+  </si>
+  <si>
+    <t>刺杀，野蛮，武力盾，烈火，冰咆，火雨</t>
+  </si>
+  <si>
+    <t>战法</t>
+  </si>
+  <si>
+    <t>野蛮撞击</t>
+  </si>
+  <si>
+    <t>3001,3002,3005,3005,3008,2007</t>
+  </si>
+  <si>
+    <t>治愈，火符，道力盾，隐身，月灵，冰咆</t>
+  </si>
+  <si>
+    <t>道法</t>
+  </si>
+  <si>
+    <t>武力盾</t>
+  </si>
+  <si>
+    <t>2002,2007,2005,2009,3005,3009</t>
+  </si>
+  <si>
+    <t>雷电，冰咆，法盾，火雨，隐身，月灵</t>
+  </si>
+  <si>
+    <t>法道</t>
+  </si>
+  <si>
+    <t>武力精通</t>
+  </si>
+  <si>
+    <t>1002,1004,1007,1008,1005,3009</t>
+  </si>
+  <si>
+    <t>刺杀，野蛮，护体，烈火，武力盾，月灵</t>
+  </si>
+  <si>
+    <t>战道</t>
+  </si>
+  <si>
+    <t>烈火剑法</t>
+  </si>
+  <si>
+    <t>3002,3005,3008,3009,1004,1007</t>
+  </si>
+  <si>
+    <t>火符，道力盾，隐身，月灵，野蛮，烈火</t>
+  </si>
+  <si>
+    <t>道战</t>
+  </si>
+  <si>
+    <t>护体神盾</t>
+  </si>
+  <si>
+    <t>2002,2007,2005,2009,1008,1009</t>
+  </si>
+  <si>
+    <t>雷电，冰咆，法盾，火雨，护体，开天</t>
+  </si>
+  <si>
+    <t>法战</t>
+  </si>
+  <si>
+    <t>开天斩</t>
+  </si>
+  <si>
+    <t>微笑</t>
+  </si>
+  <si>
+    <t>小火球</t>
+  </si>
+  <si>
+    <t>策划</t>
+  </si>
+  <si>
+    <t>雷电术</t>
+  </si>
+  <si>
+    <t>美术</t>
+  </si>
+  <si>
+    <t>火墙</t>
+  </si>
+  <si>
+    <t>鸡腿（战）</t>
+  </si>
+  <si>
+    <t>（战）</t>
+  </si>
+  <si>
+    <t>爆裂火焰</t>
+  </si>
+  <si>
+    <t>鸡腿（法）</t>
+  </si>
+  <si>
+    <t>（法）</t>
+  </si>
+  <si>
+    <t>魔法盾</t>
+  </si>
+  <si>
+    <t>鸡腿（道）</t>
+  </si>
+  <si>
+    <t>（道）</t>
+  </si>
+  <si>
+    <t>落意</t>
+  </si>
+  <si>
+    <t>法术精通</t>
+  </si>
+  <si>
+    <t>肖玉军（隐士）</t>
+  </si>
+  <si>
+    <t>微笑（战）</t>
+  </si>
+  <si>
+    <t>冰咆哮</t>
+  </si>
+  <si>
+    <t>微笑（法）</t>
+  </si>
+  <si>
+    <t>瞬息移动</t>
+  </si>
+  <si>
+    <t>微笑（道）</t>
+  </si>
+  <si>
+    <t>流星火雨</t>
+  </si>
+  <si>
+    <t>落意（战）</t>
+  </si>
+  <si>
+    <t>落意（法）</t>
+  </si>
+  <si>
+    <t>治疗术</t>
+  </si>
+  <si>
+    <t>落意（道）</t>
+  </si>
+  <si>
+    <t>鸡王</t>
+  </si>
+  <si>
+    <t>火符术</t>
+  </si>
+  <si>
+    <t>施毒术</t>
+  </si>
+  <si>
+    <t>召唤骷髅</t>
+  </si>
+  <si>
+    <t>道力盾</t>
+  </si>
+  <si>
+    <t>道力精通</t>
+  </si>
+  <si>
+    <t>召唤神兽</t>
+  </si>
+  <si>
+    <t>基岩</t>
+  </si>
+  <si>
+    <t>隐身术</t>
+  </si>
+  <si>
+    <t>召唤月灵</t>
+  </si>
+  <si>
+    <t>肖玉军隐士</t>
   </si>
 </sst>
 </file>
@@ -86,14 +292,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -241,7 +447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +783,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,16 +807,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -613,103 +825,107 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1029,13 +1245,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -1046,10 +1262,12 @@
     <col min="7" max="7" width="13.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="10" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="14.2083333333333" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="E1" s="2"/>
@@ -1058,7 +1276,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:9">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="E2" s="2"/>
@@ -1067,7 +1285,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1084,7 +1302,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -1101,7 +1319,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -1118,274 +1336,1085 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="24" customHeight="1" spans="1:9">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="3:5">
-      <c r="C7">
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1001</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:15">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1002</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:15">
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1003</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:15">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1004</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:15">
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1005</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:15">
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1006</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:15">
+      <c r="C12" s="4">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1007</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:15">
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1008</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:15">
+      <c r="C14" s="4">
         <v>9</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1009</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:15">
+      <c r="C15" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="3:5">
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" customHeight="1" spans="3:21">
+      <c r="C16" s="4">
         <v>11</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="8">
+        <v>2001</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:21">
+      <c r="C17" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="3:5">
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="3:5">
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="3:5">
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="3:5">
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="3:5">
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="3:5">
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="3:5">
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="3:5">
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="3:5">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="3:5">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="3:5">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" ht="24" customHeight="1" spans="3:5">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" ht="24" customHeight="1" spans="3:5">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" ht="24" customHeight="1" spans="3:5">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" ht="24" customHeight="1" spans="3:5">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" ht="24" customHeight="1" spans="3:5">
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25" ht="24" customHeight="1" spans="3:5">
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" ht="24" customHeight="1" spans="3:5">
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" ht="24" customHeight="1" spans="3:5">
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" ht="24" customHeight="1" spans="3:5">
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" ht="24" customHeight="1" spans="3:5">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" ht="24" customHeight="1" spans="3:5">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="3:5">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32" ht="24" customHeight="1" spans="3:5">
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" ht="24" customHeight="1" spans="3:5">
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34" ht="24" customHeight="1" spans="3:5">
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35" ht="24" customHeight="1" spans="3:5">
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36" ht="24" customHeight="1" spans="3:5">
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37" ht="24" customHeight="1" spans="3:5">
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38" ht="24" customHeight="1" spans="3:5">
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" ht="24" customHeight="1" spans="3:5">
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" ht="24" customHeight="1" spans="3:5">
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-    </row>
-    <row r="41" ht="24" customHeight="1" spans="3:5">
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-    </row>
-    <row r="42" ht="24" customHeight="1" spans="3:5">
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-    </row>
-    <row r="43" ht="24" customHeight="1" spans="3:5">
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-    </row>
-    <row r="44" ht="24" customHeight="1" spans="3:5">
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-    </row>
-    <row r="45" ht="24" customHeight="1" spans="3:5">
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-    </row>
-    <row r="46" ht="24" customHeight="1" spans="3:5">
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" ht="24" customHeight="1" spans="3:5">
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" ht="24" customHeight="1" spans="3:5">
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-    </row>
-    <row r="49" ht="24" customHeight="1" spans="3:5">
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-    </row>
-    <row r="50" ht="24" customHeight="1" spans="3:5">
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-    </row>
-    <row r="51" ht="24" customHeight="1" spans="3:5">
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-    </row>
-    <row r="52" ht="24" customHeight="1" spans="3:5">
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-    </row>
-    <row r="53" ht="24" customHeight="1" spans="3:5">
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-    </row>
-    <row r="54" ht="24" customHeight="1" spans="3:5">
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="8">
+        <v>2002</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:25">
+      <c r="C18" s="4">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="8">
+        <v>2003</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:25">
+      <c r="C19" s="4">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="8">
+        <v>2004</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:25">
+      <c r="C20" s="4">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="8">
+        <v>2005</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:21">
+      <c r="C21" s="4">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="8">
+        <v>2006</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:21">
+      <c r="C22" s="4">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="8">
+        <v>2007</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:21">
+      <c r="C23" s="4">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="8">
+        <v>2008</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:21">
+      <c r="C24" s="4">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="8">
+        <v>2009</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:21">
+      <c r="C25" s="4">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="1"/>
+      <c r="U25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:21">
+      <c r="C26" s="4">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" s="8">
+        <v>3001</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:15">
+      <c r="C27" s="4">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="8">
+        <v>3002</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:15">
+      <c r="C28" s="4">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="8">
+        <v>3003</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:15">
+      <c r="C29" s="4">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" s="8">
+        <v>3004</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:15">
+      <c r="C30" s="4">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" s="8">
+        <v>3005</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:15">
+      <c r="C31" s="4">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="8">
+        <v>3006</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:15">
+      <c r="C32" s="4">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="8">
+        <v>3007</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:15">
+      <c r="C33" s="4">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="8">
+        <v>3008</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:15">
+      <c r="C34" s="4">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="8">
+        <v>3009</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:7">
+      <c r="C35" s="4">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:7">
+      <c r="C36" s="4">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:7">
+      <c r="C37" s="4">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:7">
+      <c r="C38" s="4">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:7">
+      <c r="C39" s="4">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:7">
+      <c r="C40" s="4">
+        <v>35</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:7">
+      <c r="C41" s="4">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:7">
+      <c r="C42" s="4">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:7">
+      <c r="C43" s="4">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:7">
+      <c r="C44" s="4">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:7">
+      <c r="C45" s="4">
+        <v>40</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:7">
+      <c r="C46" s="4">
+        <v>41</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:7">
+      <c r="C47" s="4">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:7">
+      <c r="C48" s="4">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:7">
+      <c r="C49" s="4">
+        <v>44</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:7">
+      <c r="C50" s="4">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:7">
+      <c r="C51" s="4">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:7">
+      <c r="C52" s="4">
+        <v>47</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:7">
+      <c r="C53" s="4">
+        <v>48</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:7">
+      <c r="C54" s="4">
+        <v>49</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:7">
+      <c r="C55" s="4">
+        <v>50</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:7">
+      <c r="C56" s="4">
+        <v>51</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1396,440 +2425,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="13.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="24" customHeight="1" spans="3:9">
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3:G3 E4 F4 G4 E5 F5 G5 C3:C5 D4:D5" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>